--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="24525" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="第二章" sheetId="2" r:id="rId2"/>
+    <sheet name="第三章" sheetId="3" r:id="rId3"/>
+    <sheet name="第四章" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>组织的含义</t>
   </si>
@@ -94,6 +95,453 @@
   </si>
   <si>
     <t>研究行政组织理论对【我国改革实践】的指导作用</t>
+  </si>
+  <si>
+    <t>奴隶制时期古埃及，古希腊，古罗马行政组织的特点</t>
+  </si>
+  <si>
+    <t>古希腊，古罗马两国行政组织的地位极其与立法，司法组织的关系</t>
+  </si>
+  <si>
+    <t>评析古希腊，古罗马行政组织的民主性</t>
+  </si>
+  <si>
+    <t>封建制时期英法两国行政组织的特点</t>
+  </si>
+  <si>
+    <t>英法两国封建制时期中央行政组织的演变</t>
+  </si>
+  <si>
+    <t>英法两国地方行政组织的演变</t>
+  </si>
+  <si>
+    <t>英法两国封建制时期行政组织手里发权制约的历史意义和现实意义</t>
+  </si>
+  <si>
+    <t>英国内阁的职能</t>
+  </si>
+  <si>
+    <t>英国【地方行政组织】的职能</t>
+  </si>
+  <si>
+    <t>美国独立管理机构的性质及特点</t>
+  </si>
+  <si>
+    <t>美国州政府与联邦政府的关系</t>
+  </si>
+  <si>
+    <t>美国城市组织形式的多样性</t>
+  </si>
+  <si>
+    <t>法国地方行政组织特点</t>
+  </si>
+  <si>
+    <t>美国内阁与英国内阁的不同特点</t>
+  </si>
+  <si>
+    <t>法国地方行政组织与中央行政组织的关系</t>
+  </si>
+  <si>
+    <t>法国与美国总统职权的不同特点</t>
+  </si>
+  <si>
+    <t>法国地方政府与英国地方政府职权的比较</t>
+  </si>
+  <si>
+    <t>英美法三国行政组织特点的比较</t>
+  </si>
+  <si>
+    <t>三公九卿与三省六部二十四司的行政组织体制</t>
+  </si>
+  <si>
+    <t>【中国古代行政组织】的特点</t>
+  </si>
+  <si>
+    <t>中国古代行政组织演变的历史脉络</t>
+  </si>
+  <si>
+    <t>从中国古代行政组织的特点，看其对现代中国行政组织的正负影响</t>
+  </si>
+  <si>
+    <t>孙中山的五权并立质</t>
+  </si>
+  <si>
+    <t>中华民国行政组织的特点</t>
+  </si>
+  <si>
+    <t>中华民国总统制与内阁制演变的过程及其历史背景</t>
+  </si>
+  <si>
+    <t>南京国民政府的五院及其与国民党的关系</t>
+  </si>
+  <si>
+    <t>孙中山的五权并立思想与南京政府无缘制的区别</t>
+  </si>
+  <si>
+    <t>中国人民共和国行政组织的性质及其职能</t>
+  </si>
+  <si>
+    <t>中华人民共和国性质组织的结构与规模</t>
+  </si>
+  <si>
+    <t>中华人民共和国中央行政组织的调整与改革</t>
+  </si>
+  <si>
+    <t>中国人民共和国地方行政组织的组成，职能，机构设置</t>
+  </si>
+  <si>
+    <t>中央行政组织与地方行政组织的关系</t>
+  </si>
+  <si>
+    <t>关于新中国行政组织以经济主管部门占多数的认识</t>
+  </si>
+  <si>
+    <t>分析四次机构改革为走出精简，膨胀，再精简，在膨胀的怪圈和一统就死，一放就乱的怪圈与计划经济体制的关系</t>
+  </si>
+  <si>
+    <t>柏拉图的行政组织思想</t>
+  </si>
+  <si>
+    <t>亚里士多德的行政组织思想</t>
+  </si>
+  <si>
+    <t>马基雅维利的思想组织原则</t>
+  </si>
+  <si>
+    <t>官房学派及其理论观点</t>
+  </si>
+  <si>
+    <t>汉密尔顿的行政组织思想</t>
+  </si>
+  <si>
+    <t>密尔的行政组织思想</t>
+  </si>
+  <si>
+    <t>对外国早起行政组织思想的评价</t>
+  </si>
+  <si>
+    <t>行政组织理论研究的三个时期</t>
+  </si>
+  <si>
+    <t>行政组织理论产生的经济，政治，文化环境</t>
+  </si>
+  <si>
+    <t>行政组织理论的研究趋向</t>
+  </si>
+  <si>
+    <t>威尔逊行政组织思想要点</t>
+  </si>
+  <si>
+    <t>泰罗的科学管理组织理论</t>
+  </si>
+  <si>
+    <t>法约尔的组织管理五要素</t>
+  </si>
+  <si>
+    <t>韦伯的三种权威类型</t>
+  </si>
+  <si>
+    <t>古拉克的七要素</t>
+  </si>
+  <si>
+    <t>厄威尔的八条原则</t>
+  </si>
+  <si>
+    <t>威尔逊理论贡献</t>
+  </si>
+  <si>
+    <t>官僚制组织的特征</t>
+  </si>
+  <si>
+    <t>泰罗，法约尔，韦伯组织思想的比较</t>
+  </si>
+  <si>
+    <t>行为科学</t>
+  </si>
+  <si>
+    <t>社会人理论</t>
+  </si>
+  <si>
+    <t>职工的满足度</t>
+  </si>
+  <si>
+    <t>梅奥人际关系组织理论的基本内容与贡献</t>
+  </si>
+  <si>
+    <t>梅奥人际关系组织理论与不讲原则的庸俗人际关系思想的区别</t>
+  </si>
+  <si>
+    <t>组织的定义</t>
+  </si>
+  <si>
+    <t>组织三要素</t>
+  </si>
+  <si>
+    <t>权威来自接受</t>
+  </si>
+  <si>
+    <t>组织平衡论</t>
+  </si>
+  <si>
+    <t>非正式组织</t>
+  </si>
+  <si>
+    <t>巴纳德的组织平衡思想的意思</t>
+  </si>
+  <si>
+    <t>权威来自接受思想的意义</t>
+  </si>
+  <si>
+    <t>用实例说明权威来自接受的重要性</t>
+  </si>
+  <si>
+    <t>巴纳德的组织内外平衡思想对我国行政组织改革的意义</t>
+  </si>
+  <si>
+    <t>组织的基本功能就是决策</t>
+  </si>
+  <si>
+    <t>组织平衡轮</t>
+  </si>
+  <si>
+    <t>组织影响轮</t>
+  </si>
+  <si>
+    <t>西蒙决策组织理论的主要内容</t>
+  </si>
+  <si>
+    <t>用实例说明行政组织的基本功能就是决策</t>
+  </si>
+  <si>
+    <t>行为科学行政组织理论研究的特点</t>
+  </si>
+  <si>
+    <t>行为科学行政组织理论的成就与不足</t>
+  </si>
+  <si>
+    <t>行为科学的行政组织理论与行政组织民主化的关系</t>
+  </si>
+  <si>
+    <t>帕森斯关于行政组织的系统论观点</t>
+  </si>
+  <si>
+    <t>卡斯特，罗森茨威克关于组织的开发性，整体性，权变性的观点</t>
+  </si>
+  <si>
+    <t>系统性与平衡轮的观点</t>
+  </si>
+  <si>
+    <t>整体系统与五个分系统的关系</t>
+  </si>
+  <si>
+    <t>权变论与平衡论的关系</t>
+  </si>
+  <si>
+    <t>用人类行政组织发展的历史说明系统论，开放论，平衡轮，权变论思想的意义</t>
+  </si>
+  <si>
+    <t>三种社会形态的三种行政组织模式</t>
+  </si>
+  <si>
+    <t>过度社会行政组织的特征</t>
+  </si>
+  <si>
+    <t>外部生态环境对行政组织的影响</t>
+  </si>
+  <si>
+    <t>结合中国实际，说明雷格斯关于过度社会行政组织的特征</t>
+  </si>
+  <si>
+    <t>帕金森定律</t>
+  </si>
+  <si>
+    <t>彼得原理</t>
+  </si>
+  <si>
+    <t>关于行政组织中的帕金森现象，彼得原理的普遍意义</t>
+  </si>
+  <si>
+    <t>用中国行政组织中的官僚主义现象说明帕金森定律</t>
+  </si>
+  <si>
+    <t>新公共政策学派</t>
+  </si>
+  <si>
+    <t>公共行政组织的四中基本运作过程</t>
+  </si>
+  <si>
+    <t>新公共行政学派的理论主张</t>
+  </si>
+  <si>
+    <t>试分析新公共行政学派关于公平至上观点的现实意义</t>
+  </si>
+  <si>
+    <t>企业家政府组织理论</t>
+  </si>
+  <si>
+    <t>企业家政府的十大特征</t>
+  </si>
+  <si>
+    <t>企业家政府组织理论的贡献</t>
+  </si>
+  <si>
+    <t>企业家政府组织理论与官僚制组织理论的区别</t>
+  </si>
+  <si>
+    <t>企业家政府组织理论产生的时代背景</t>
+  </si>
+  <si>
+    <t>彼得斯提出的四中政府治理模式</t>
+  </si>
+  <si>
+    <t>休斯归纳的新公共管理模式的特征</t>
+  </si>
+  <si>
+    <t>登哈特对企业化政府组织理论的批评</t>
+  </si>
+  <si>
+    <t>新公共服务理念指导下的行政组织改革</t>
+  </si>
+  <si>
+    <t>现代行政组织理论研究的特点</t>
+  </si>
+  <si>
+    <t>现代行政组织理论的成就与不足</t>
+  </si>
+  <si>
+    <t>现代行政组织理论对中国行政组织的借鉴作用</t>
+  </si>
+  <si>
+    <t>孔子的礼的行政组织思想</t>
+  </si>
+  <si>
+    <t>孟子的仁的行政组织思想</t>
+  </si>
+  <si>
+    <t>荀子的礼法结合的性质组织思想</t>
+  </si>
+  <si>
+    <t>荀子是如家行政组织思想的集大成者</t>
+  </si>
+  <si>
+    <t>如家行政组织思想的意义和局限性</t>
+  </si>
+  <si>
+    <t>商鞅法治思想的主要观点</t>
+  </si>
+  <si>
+    <t>韩非法治思想的主要观点</t>
+  </si>
+  <si>
+    <t>法术势行政组织思想的主要内容及其意义</t>
+  </si>
+  <si>
+    <t>【法家行政组织的崇尚法治】与【现代民主共和国依法治国】的区别和联系</t>
+  </si>
+  <si>
+    <t>老子行政组织思想的主要观点</t>
+  </si>
+  <si>
+    <t>自然无为，组织原则的是与非</t>
+  </si>
+  <si>
+    <t>自然无为论与当代流行的有限政府论的联系</t>
+  </si>
+  <si>
+    <t>莫子行政组织思想的主要观点</t>
+  </si>
+  <si>
+    <t>莫子的尚同，尚贤，节用，非乐行政组织思想的评析</t>
+  </si>
+  <si>
+    <t>莫子的节用，非乐思想与廉价政府的联系与区别</t>
+  </si>
+  <si>
+    <t>中国古代行政组织思想的特点</t>
+  </si>
+  <si>
+    <t>中国古代行政组织思想的成就与不足</t>
+  </si>
+  <si>
+    <t>中国古代行政组织思想对现代行政组织思想的奠基作用</t>
+  </si>
+  <si>
+    <t>孙中山行政组织思想的理论要点</t>
+  </si>
+  <si>
+    <t>孙中山的五权分立原则与五院制政府的构想</t>
+  </si>
+  <si>
+    <t>孙中山均权制的实现意义</t>
+  </si>
+  <si>
+    <t>马克思主义行政组织理论</t>
+  </si>
+  <si>
+    <t>毛泽东行政组织思想的主要观点</t>
+  </si>
+  <si>
+    <t>社会主义国家行政组织的性质</t>
+  </si>
+  <si>
+    <t>社会主义国家行政组织的职能</t>
+  </si>
+  <si>
+    <t>社会主义国家行政组织设置与运行的原则</t>
+  </si>
+  <si>
+    <t>社会主义的中国行政组织职能的演变</t>
+  </si>
+  <si>
+    <t>社会主义国家行政组织建设的指导原则</t>
+  </si>
+  <si>
+    <t>社会主义的中国行政组织对人民代表大会负责和接受党的领导的关系</t>
+  </si>
+  <si>
+    <t>毛泽东行政组织思想对我国行政组织建设的知道作用</t>
+  </si>
+  <si>
+    <t>行政组织的中心职能</t>
+  </si>
+  <si>
+    <t>行政组织改革的必要性，内容，目标</t>
+  </si>
+  <si>
+    <t>行政组织必须加强【法制建设】</t>
+  </si>
+  <si>
+    <t>改革是邓小平行政组织思想的精髓</t>
+  </si>
+  <si>
+    <t>对机构改革是一场革命的认识和体会</t>
+  </si>
+  <si>
+    <t>邓小平行政组织思想对我国当前行政组织改革与建设的知道作用</t>
+  </si>
+  <si>
+    <t>行政机构改革的必要性</t>
+  </si>
+  <si>
+    <t>行政机构改革的原则</t>
+  </si>
+  <si>
+    <t>干部人事制度改革的内容</t>
+  </si>
+  <si>
+    <t>以人为本思想对我国政府改革的指导</t>
+  </si>
+  <si>
+    <t>孙中山行政组织思想的承前启后的历史地位</t>
+  </si>
+  <si>
+    <t>毛，邓，现阶段中国领导人的行政组织思想是当代中国行政组织理论的基础</t>
+  </si>
+  <si>
+    <t>毛，邓，现阶段中国领导人的行政组织思想的理论意义和实践意义</t>
+  </si>
+  <si>
+    <t>邓小平和现阶段中国领导人的行政组织思想是对毛泽东行政组织思想的继承和发展</t>
   </si>
 </sst>
 </file>
@@ -101,9 +549,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -115,18 +563,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,29 +587,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,10 +609,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,6 +640,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -206,7 +670,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,51 +707,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -275,55 +723,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,19 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,25 +885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,73 +903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +914,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,11 +961,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,214 +1008,167 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,8 +1521,8 @@
   <sheetPr/>
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1097,7 +1548,7 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1216,14 +1667,185 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1233,16 +1855,609 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" activeTab="3"/>
+    <workbookView windowWidth="24525" windowHeight="12240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
     <sheet name="第二章" sheetId="2" r:id="rId2"/>
     <sheet name="第三章" sheetId="3" r:id="rId3"/>
     <sheet name="第四章" sheetId="4" r:id="rId4"/>
+    <sheet name="第五章" sheetId="5" r:id="rId5"/>
+    <sheet name="第六章" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>组织的含义</t>
   </si>
@@ -542,6 +544,186 @@
   </si>
   <si>
     <t>邓小平和现阶段中国领导人的行政组织思想是对毛泽东行政组织思想的继承和发展</t>
+  </si>
+  <si>
+    <t>组织目标的核心内涵</t>
+  </si>
+  <si>
+    <t>行政组织目标的含义</t>
+  </si>
+  <si>
+    <t>行政组织目标的特征</t>
+  </si>
+  <si>
+    <t>行政组织目标的作用</t>
+  </si>
+  <si>
+    <t>纵向目标</t>
+  </si>
+  <si>
+    <t>横向目标</t>
+  </si>
+  <si>
+    <t>外部目标</t>
+  </si>
+  <si>
+    <t>内部目标</t>
+  </si>
+  <si>
+    <t>战略目标</t>
+  </si>
+  <si>
+    <t>战术目标</t>
+  </si>
+  <si>
+    <t>消极目标</t>
+  </si>
+  <si>
+    <t>积极目标</t>
+  </si>
+  <si>
+    <t>经济目标</t>
+  </si>
+  <si>
+    <t>文化目标</t>
+  </si>
+  <si>
+    <t>社会目标</t>
+  </si>
+  <si>
+    <t>如何理解行政组织的社会目标</t>
+  </si>
+  <si>
+    <t>行政组织外部目标的内容</t>
+  </si>
+  <si>
+    <t>行政组织目标的二分法</t>
+  </si>
+  <si>
+    <t>行政组织内外部目标之间的关系</t>
+  </si>
+  <si>
+    <t>行政组织如何提高社会生产效率 p127</t>
+  </si>
+  <si>
+    <t>行政组织如何回应社会公众的要求</t>
+  </si>
+  <si>
+    <t>行政组织如何提供公共服务</t>
+  </si>
+  <si>
+    <t>在当前社会环境中行政组织应该如何维护社会公平</t>
+  </si>
+  <si>
+    <t>行政组织内部目标的内容</t>
+  </si>
+  <si>
+    <t>行政组织如何管理组织资源</t>
+  </si>
+  <si>
+    <t>行政组织如何进行机关管理</t>
+  </si>
+  <si>
+    <t>行政组织如何成功地进行绩效管理</t>
+  </si>
+  <si>
+    <t>行政组织如何推动组织发展</t>
+  </si>
+  <si>
+    <t>目标管理的内涵</t>
+  </si>
+  <si>
+    <t>目标管理的演进</t>
+  </si>
+  <si>
+    <t>企业组织与行政组织目标管理的差异</t>
+  </si>
+  <si>
+    <t>制定组织目标的原则</t>
+  </si>
+  <si>
+    <t>目标管理的效果</t>
+  </si>
+  <si>
+    <t>指定组织目标的方法与技术</t>
+  </si>
+  <si>
+    <t>目标执行的主要工作</t>
+  </si>
+  <si>
+    <t>目标评估的标准</t>
+  </si>
+  <si>
+    <t>目标评估的方法</t>
+  </si>
+  <si>
+    <t>如何在行政组织中正确开展目标管理</t>
+  </si>
+  <si>
+    <t>行政组织要素</t>
+  </si>
+  <si>
+    <t>行政组织结构</t>
+  </si>
+  <si>
+    <t>行政组织结构的功能</t>
+  </si>
+  <si>
+    <t>合理的行政组织结构的标准</t>
+  </si>
+  <si>
+    <t>用实例说明合理的行政组织结构的重要性</t>
+  </si>
+  <si>
+    <t>结合实际情况，分析影响行政组织结构的基本因素</t>
+  </si>
+  <si>
+    <t>行政组织的宏观纵向分工</t>
+  </si>
+  <si>
+    <t>行政组织的微观纵向分工</t>
+  </si>
+  <si>
+    <t>行政组织宏观纵向分工的必要性</t>
+  </si>
+  <si>
+    <t>行政组织的宏观纵向分工的特点</t>
+  </si>
+  <si>
+    <t>行政组织的微观纵向分工的必要性</t>
+  </si>
+  <si>
+    <t>行政组织的微观纵向分工的职责分配关系</t>
+  </si>
+  <si>
+    <t>如何掌握行政组织纵向分工的优缺点</t>
+  </si>
+  <si>
+    <t>行政组织的横向分工</t>
+  </si>
+  <si>
+    <t>行政组织的横向分工的种类</t>
+  </si>
+  <si>
+    <t>行政组织的横向分工的必要性</t>
+  </si>
+  <si>
+    <t>行政组织横向分工的优缺点</t>
+  </si>
+  <si>
+    <t>如何根据三个因素科学划分行政区划</t>
+  </si>
+  <si>
+    <t>管理层次</t>
+  </si>
+  <si>
+    <t>管理幅度</t>
+  </si>
+  <si>
+    <t>管理层次与管理幅度的关系</t>
+  </si>
+  <si>
+    <t>如何根据中国情况，正确处理管理层次和管理幅度的关系</t>
   </si>
 </sst>
 </file>
@@ -549,9 +731,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -565,22 +747,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -600,22 +766,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -623,17 +773,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,6 +790,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,40 +811,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,11 +834,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -723,31 +905,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,151 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,31 +1099,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,17 +1129,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,15 +1196,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1022,10 +1204,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1034,133 +1216,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2230,7 +2412,7 @@
   <sheetPr/>
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
@@ -2460,4 +2642,338 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" activeTab="5"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -731,15 +731,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -759,6 +766,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -766,23 +781,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,9 +810,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,6 +840,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -856,9 +880,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,22 +902,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -905,25 +912,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,138 +1068,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1074,18 +1093,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,21 +1103,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1138,31 +1130,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,17 +1175,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,10 +1211,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1216,141 +1223,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1730,7 +1740,7 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1863,12 +1873,12 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1913,7 +1923,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1923,32 +1933,32 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1958,12 +1968,12 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1978,32 +1988,32 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2013,17 +2023,17 @@
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2086,12 +2096,12 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2136,7 +2146,7 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2161,7 +2171,7 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2201,12 +2211,12 @@
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2231,7 +2241,7 @@
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2246,7 +2256,7 @@
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2261,7 +2271,7 @@
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2276,7 +2286,7 @@
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2291,12 +2301,12 @@
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2316,12 +2326,12 @@
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2336,7 +2346,7 @@
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2351,7 +2361,7 @@
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2361,7 +2371,7 @@
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2381,7 +2391,7 @@
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2396,7 +2406,7 @@
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2412,7 +2422,7 @@
   <sheetPr/>
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
@@ -2434,12 +2444,12 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2459,7 +2469,7 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2469,12 +2479,12 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2489,7 +2499,7 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2499,12 +2509,12 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2519,7 +2529,7 @@
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2549,22 +2559,22 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2584,17 +2594,17 @@
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2609,32 +2619,32 @@
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2650,7 +2660,7 @@
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2766,7 +2776,7 @@
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2781,7 +2791,7 @@
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2791,7 +2801,7 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2816,7 +2826,7 @@
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2856,119 +2866,119 @@
   <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>234</v>
       </c>
     </row>

--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -731,9 +731,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -760,66 +760,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,9 +795,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,7 +804,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,7 +873,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,6 +894,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -912,187 +912,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,6 +1103,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1117,30 +1150,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,16 +1170,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,15 +1203,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1211,10 +1211,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1223,133 +1223,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2659,69 +2659,69 @@
   <sheetPr/>
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2866,8 +2866,8 @@
   <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
     <t>行政组织内外部目标之间的关系</t>
   </si>
   <si>
-    <t>行政组织如何提高社会生产效率 p127</t>
+    <t>行政组织如何提高社会生产效率</t>
   </si>
   <si>
     <t>行政组织如何回应社会公众的要求</t>
@@ -731,10 +731,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -773,6 +773,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -781,7 +782,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -789,14 +790,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,40 +852,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -878,30 +902,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -912,13 +912,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,169 +1092,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,11 +1106,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,6 +1125,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1154,43 +1186,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,145 +1211,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2659,8 +2659,8 @@
   <sheetPr/>
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:J13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2726,52 +2726,52 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>196</v>
       </c>
     </row>

--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -733,8 +733,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -759,8 +759,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,7 +784,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,62 +820,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,17 +841,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -890,18 +866,42 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -912,13 +912,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,37 +966,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,127 +1068,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,30 +1103,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1156,6 +1132,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1167,6 +1176,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,24 +1203,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1211,10 +1211,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1223,133 +1223,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2659,8 +2659,8 @@
   <sheetPr/>
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2781,12 +2781,12 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>204</v>
       </c>
     </row>

--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A18E3D-47A1-4209-91F9-196F307CA13E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="4"/>
+    <workbookView xWindow="-11115" yWindow="585" windowWidth="10170" windowHeight="11505" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -13,13 +19,14 @@
     <sheet name="第四章" sheetId="4" r:id="rId4"/>
     <sheet name="第五章" sheetId="5" r:id="rId5"/>
     <sheet name="第六章" sheetId="6" r:id="rId6"/>
+    <sheet name="第七章" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>组织的含义</t>
   </si>
@@ -724,19 +731,141 @@
   </si>
   <si>
     <t>如何根据中国情况，正确处理管理层次和管理幅度的关系</t>
+  </si>
+  <si>
+    <t>行政组织体制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织体制是行政组织结构的灵魂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究行政组织体制的意义</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集权制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分权制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>均权制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集权制的优缺点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分权制的优缺点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>均权制的优缺点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在当今市场经济条件下，如何正确运用集权制，分权制，均权制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首长制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>委员会制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首长制优缺点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首长制，委员会制，混合制的正确运用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整制的优缺点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离制的优缺点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名誉市长制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>市经理制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名誉市长制的优缺点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>市经理制的优缺点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>统率机关的特点和类别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被统率机关的特点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询机关的作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务机关与辅助机关的关系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时机关的性质和作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用实例说明信息机关的重要性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策机关与执行机关之间的关系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何正确处理中央行政机关与地方行政机关之间的关系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么临时机关易于膨胀，其对常设机关有何影响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,7 +875,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -759,345 +888,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1105,255 +917,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1363,62 +933,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1705,1285 +1234,1459 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A18E3D-47A1-4209-91F9-196F307CA13E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11115" yWindow="585" windowWidth="10170" windowHeight="11505" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="656" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -20,13 +14,16 @@
     <sheet name="第五章" sheetId="5" r:id="rId5"/>
     <sheet name="第六章" sheetId="6" r:id="rId6"/>
     <sheet name="第七章" sheetId="7" r:id="rId7"/>
+    <sheet name="第八章" sheetId="8" r:id="rId8"/>
+    <sheet name="第九章" sheetId="9" r:id="rId9"/>
+    <sheet name="第十章" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
   <si>
     <t>组织的含义</t>
   </si>
@@ -734,148 +731,424 @@
   </si>
   <si>
     <t>行政组织体制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>行政组织体制是行政组织结构的灵魂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>研究行政组织体制的意义</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>集权制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>分权制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>均权制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>集权制的优缺点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>分权制的优缺点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>均权制的优缺点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>在当今市场经济条件下，如何正确运用集权制，分权制，均权制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>首长制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>委员会制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>混合制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>首长制优缺点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>首长制，委员会制，混合制的正确运用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整制</t>
+  </si>
+  <si>
+    <t>分离制</t>
   </si>
   <si>
     <t>完整制的优缺点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完整制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>分离制的优缺点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>名誉市长制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>市经理制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>名誉市长制的优缺点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>市经理制的优缺点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>统率机关的特点和类别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>被统率机关的特点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>咨询机关的作用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>业务机关与辅助机关的关系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>临时机关的性质和作用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用实例说明信息机关的重要性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>决策机关与执行机关之间的关系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>如何正确处理中央行政机关与地方行政机关之间的关系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>为什么临时机关易于膨胀，其对常设机关有何影响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织的界线</t>
+  </si>
+  <si>
+    <t>行政组织外部环境的含义</t>
+  </si>
+  <si>
+    <t>行政组织外部自然环境的构成</t>
+  </si>
+  <si>
+    <t>行政组织外部社会环境的构成</t>
+  </si>
+  <si>
+    <t>物质生产与人口生产的发展状况对行政组织的影响</t>
+  </si>
+  <si>
+    <t>经济体制对行政组织的影响</t>
+  </si>
+  <si>
+    <t>比较计划经济与市场经济中的行政组织功能</t>
+  </si>
+  <si>
+    <t>国体对行政组织的影响</t>
+  </si>
+  <si>
+    <t>议会制，总统制政体对行政组织的影响</t>
+  </si>
+  <si>
+    <t>政治生活的民主，平等成都对行政组织的影响</t>
+  </si>
+  <si>
+    <t>政治形势的稳定程度对行政组织的影响</t>
+  </si>
+  <si>
+    <t>法律制度对行政组织的影响</t>
+  </si>
+  <si>
+    <t>比较一党制与两党制对行政组织的影响</t>
+  </si>
+  <si>
+    <t>依附型与参与型行政文化对行政组织的影响</t>
+  </si>
+  <si>
+    <t>人治与法治观念对行政组织的影响</t>
+  </si>
+  <si>
+    <t>血统论的权力观念对行政组织的影响</t>
+  </si>
+  <si>
+    <t>唯意志论的权力观念对行政组织的影响</t>
+  </si>
+  <si>
+    <t>法治论的权力观念对行政组织的影响</t>
+  </si>
+  <si>
+    <t>特殊关系的人际关系观念对行政组织的影响</t>
+  </si>
+  <si>
+    <t>普遍关系的人际关系观念对行政组织的影响</t>
+  </si>
+  <si>
+    <t>分析行政道德观念对行政组织的影响</t>
+  </si>
+  <si>
+    <t>民族环境对行政组织的影响</t>
+  </si>
+  <si>
+    <t>宗教环境对行政组织的影响</t>
+  </si>
+  <si>
+    <t>中国民族环境对行政组织的影响</t>
+  </si>
+  <si>
+    <t>中国宗教环境对行政组织的影响</t>
+  </si>
+  <si>
+    <t>地球环境对行政组织的影响</t>
+  </si>
+  <si>
+    <t>国际社会环境对行政组织的影响</t>
+  </si>
+  <si>
+    <t>试评析，地理环境决定论</t>
+  </si>
+  <si>
+    <t>创建良好文化环境的措施</t>
+  </si>
+  <si>
+    <t>创建良好民族环境的措施</t>
+  </si>
+  <si>
+    <t>创建良好宗教环境的措施</t>
+  </si>
+  <si>
+    <t>创建良好国际社会环境的措施</t>
+  </si>
+  <si>
+    <t>创建良好经济环境的措施</t>
+  </si>
+  <si>
+    <t>创建良好政治环境的措施</t>
+  </si>
+  <si>
+    <t>中国行政组织如何创建良好的外部环境</t>
+  </si>
+  <si>
+    <t>行政组织物质条件的含义</t>
+  </si>
+  <si>
+    <t>行政组织物质条件的内容</t>
+  </si>
+  <si>
+    <t>人员对行政组织的影响</t>
+  </si>
+  <si>
+    <t>经费对行政组织的影响</t>
+  </si>
+  <si>
+    <t>行政组织制度条件的含义</t>
+  </si>
+  <si>
+    <t>行政组织制度条件的内容</t>
+  </si>
+  <si>
+    <t>试析制度对于行政组织的极端重要性</t>
+  </si>
+  <si>
+    <t>人际关系的含义</t>
+  </si>
+  <si>
+    <t>行政组织内部人际关系的内容</t>
+  </si>
+  <si>
+    <t>人际关系对行政组织的影响</t>
+  </si>
+  <si>
+    <t>群团的含义</t>
+  </si>
+  <si>
+    <t>群团的特点</t>
+  </si>
+  <si>
+    <t>正式群团与非正式群团的区别</t>
+  </si>
+  <si>
+    <t>有效群团与无效群团的区别</t>
+  </si>
+  <si>
+    <t>非正式全团对行政组织的影响</t>
+  </si>
+  <si>
+    <t>组织摩擦的含义</t>
+  </si>
+  <si>
+    <t>组织摩擦的种类</t>
+  </si>
+  <si>
+    <t>产生组织摩擦的主观与客观原因</t>
+  </si>
+  <si>
+    <t>建设性组织摩擦对行政组织的不同影响</t>
+  </si>
+  <si>
+    <t>破坏性组织摩擦对行政组织的不同影响</t>
+  </si>
+  <si>
+    <t>创建良好制度条件的措施</t>
+  </si>
+  <si>
+    <t>创建良好物质条件的措施</t>
+  </si>
+  <si>
+    <t>创建良好人际关系的措施</t>
+  </si>
+  <si>
+    <t>创建良好群团关系的措施</t>
+  </si>
+  <si>
+    <t>如何正确处理组织摩擦</t>
+  </si>
+  <si>
+    <t>中国行政组织如何创建良好的内部条件</t>
+  </si>
+  <si>
+    <t>行政组织设置原则的指导思想</t>
+  </si>
+  <si>
+    <t>行政组织设置原则的作用</t>
+  </si>
+  <si>
+    <t>行政组织设置原则中主观性与客观性的对立统一</t>
+  </si>
+  <si>
+    <t>行政组织设置原则在行政组织改革过程中的作用</t>
+  </si>
+  <si>
+    <t>传统理论时期的行政组织设置原则</t>
+  </si>
+  <si>
+    <t>行为科学时期的行政组织设置原则</t>
+  </si>
+  <si>
+    <t>系统权变时期的行政组织设置原则</t>
+  </si>
+  <si>
+    <t>层级节制与幅度适中的原则</t>
+  </si>
+  <si>
+    <t>参与，沟通，激励的原则</t>
+  </si>
+  <si>
+    <t>试用系统权变原则来描述一个理想的行政组织模式</t>
+  </si>
+  <si>
+    <t>服务原则</t>
+  </si>
+  <si>
+    <t>职能原则</t>
+  </si>
+  <si>
+    <t>统一原则</t>
+  </si>
+  <si>
+    <t>系统原则</t>
+  </si>
+  <si>
+    <t>效能原则</t>
+  </si>
+  <si>
+    <t>比较职能原则与效能原则</t>
+  </si>
+  <si>
+    <t>如何用法治原则来知道中国行政组织的改革</t>
+  </si>
+  <si>
+    <t>行政组织自身管理方法的含义</t>
+  </si>
+  <si>
+    <t>行政组织自身管理方法的经济依据</t>
+  </si>
+  <si>
+    <t>行政组织自身管理方法的理论依据</t>
+  </si>
+  <si>
+    <t>研究行政组织自身管理方法的意义</t>
+  </si>
+  <si>
+    <t>规制型管理的含义</t>
+  </si>
+  <si>
+    <t>工作秩序化的内容</t>
+  </si>
+  <si>
+    <t>组织标准化的内容</t>
+  </si>
+  <si>
+    <t>管理规范化的内容</t>
+  </si>
+  <si>
+    <t>分析规制型管理的优缺点</t>
+  </si>
+  <si>
+    <t>情感型管理的含义</t>
+  </si>
+  <si>
+    <t>中国传统的情感管理方法</t>
+  </si>
+  <si>
+    <t>情感型管理的基本方法</t>
+  </si>
+  <si>
+    <t>比较规制型管理与情感型管理</t>
+  </si>
+  <si>
+    <t>市场化管理的含义</t>
+  </si>
+  <si>
+    <t>行政组织内部管理市场化的特点</t>
+  </si>
+  <si>
+    <t>行政组织内部人事制度市场化的内容</t>
+  </si>
+  <si>
+    <t>行政组织自我服务功能市场化的内容</t>
+  </si>
+  <si>
+    <t>比较规制型管理与市场化管理</t>
+  </si>
+  <si>
+    <t>如何用市场化管理方法来指导中国行政组织的改革</t>
+  </si>
+  <si>
+    <t>民主集中制的含义</t>
+  </si>
+  <si>
+    <t>目标管理的含义</t>
+  </si>
+  <si>
+    <t>目标管理方法的内容</t>
+  </si>
+  <si>
+    <t>目标管理中应注意的问题</t>
+  </si>
+  <si>
+    <t>如何理解民主与集中的结合</t>
+  </si>
+  <si>
+    <t>如何做到重人与重制度想结合</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -888,28 +1161,358 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -917,9 +1520,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -933,21 +1778,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1234,1459 +2123,2031 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="A1:XFD1048576"/>
+      <selection activeCell="F29" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B0082B-521E-4EE4-B463-737ABAB8A1B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="656" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="656" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -1138,14 +1144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1174,345 +1174,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1520,255 +1204,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1781,62 +1223,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2123,2031 +1524,2022 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>369</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B0082B-521E-4EE4-B463-737ABAB8A1B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="656" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="656" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -23,6 +17,7 @@
     <sheet name="第八章" sheetId="8" r:id="rId8"/>
     <sheet name="第九章" sheetId="9" r:id="rId9"/>
     <sheet name="第十章" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1144,8 +1139,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,34 +1170,368 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1204,13 +1539,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,21 +1800,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1524,2022 +2154,2053 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>369</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="A1:XFD1048576"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>266</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>301</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C38507-BC91-4520-B7B9-317291263D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="656" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -17,14 +23,14 @@
     <sheet name="第八章" sheetId="8" r:id="rId8"/>
     <sheet name="第九章" sheetId="9" r:id="rId9"/>
     <sheet name="第十章" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
+    <sheet name="第十一章" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="406">
   <si>
     <t>组织的含义</t>
   </si>
@@ -1134,29 +1140,160 @@
   </si>
   <si>
     <t>如何做到重人与重制度想结合</t>
+  </si>
+  <si>
+    <t>行政组织编制的含义</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>我国行政组织编制的种类</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制的狭义概念</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制的广义概念</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析我国行政组织编制管辖类别较多的原因</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明特殊编制存在的必要性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制管理的内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制管理的性质</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>职能，机构，人员管理三者之间的关系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制管理的意义</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代国外行政组织编制管理的特点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员编制管理的具体要求（内容）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明当代国外行政组织编制管理的主要特点，及其值得我们借鉴的地方</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合实际，谈谈行政组织编制管理的重大意义</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合实际谈谈我国行政组织编制管理中存在的问题，并提出你的解决措施</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制设计【原则】</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编辑【总体设计】【依据】</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制【单元设计】【依据】</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制设计【程序】</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制设计的原则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制总体设计依据与单元设计依据的区别</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制设计程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明行政组织编制设计应遵循的原则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系实际说明行政组织编制设计的依据，要求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较行政决策程序与编制设计程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制审批程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制审批要求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织编制的审批要求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较党，人大，政协，政府，检察院，法院编制的审批权限和程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明行政组织编制审批的法制化趋势与要求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制管理工作规范化的要求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制管理手段</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制管理技术</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制管理工作规范化要求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较编制管理手段各自的长短处</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合实际情况，谈谈我国编制管理工作应该如何走向规范化和现代化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1175,7 +1312,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1187,351 +1324,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1539,255 +1367,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1800,74 +1386,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2154,2053 +1699,2248 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
         <v>369</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="7" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="G17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C38507-BC91-4520-B7B9-317291263D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501FFDA5-36A6-49F2-B298-81B86DED5910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="656" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="第九章" sheetId="9" r:id="rId9"/>
     <sheet name="第十章" sheetId="10" r:id="rId10"/>
     <sheet name="第十一章" sheetId="11" r:id="rId11"/>
+    <sheet name="第十二章" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1707,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -2087,7 +2088,7 @@
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2278,6 +2279,24 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9F94DC-8993-46EE-AC4C-9EA0A98232FD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501FFDA5-36A6-49F2-B298-81B86DED5910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="656" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="656" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -1144,154 +1138,124 @@
   </si>
   <si>
     <t>行政组织编制的含义</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>我国行政组织编制的种类</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制的狭义概念</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制的广义概念</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>分析我国行政组织编制管辖类别较多的原因</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>说明特殊编制存在的必要性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制管理的内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制管理的性质</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>职能，机构，人员管理三者之间的关系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制管理的意义</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当代国外行政组织编制管理的特点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>人员编制管理的具体要求（内容）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>说明当代国外行政组织编制管理的主要特点，及其值得我们借鉴的地方</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>结合实际，谈谈行政组织编制管理的重大意义</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>结合实际谈谈我国行政组织编制管理中存在的问题，并提出你的解决措施</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制设计【原则】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编辑【总体设计】【依据】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制【单元设计】【依据】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制设计【程序】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制设计的原则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制总体设计依据与单元设计依据的区别</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制设计程序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>说明行政组织编制设计应遵循的原则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>联系实际说明行政组织编制设计的依据，要求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>比较行政决策程序与编制设计程序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制审批程序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制审批要求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行政组织编制的审批要求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>比较党，人大，政协，政府，检察院，法院编制的审批权限和程序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>说明行政组织编制审批的法制化趋势与要求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>编制管理工作规范化的要求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>编制管理手段</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>编制管理技术</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>编制管理工作规范化要求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>比较编制管理手段各自的长短处</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>结合实际情况，谈谈我国编制管理工作应该如何走向规范化和现代化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1306,8 +1270,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1319,48 +1301,344 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1368,13 +1646,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1387,33 +1907,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1700,2266 +2258,2277 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
         <v>369</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
         <v>405</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9F94DC-8993-46EE-AC4C-9EA0A98232FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="7" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="7" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="6" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="6" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="6" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="6" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="7" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="5" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="5" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:XFD1048576"/>
+      <selection activeCell="G17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="6" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="4"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3704300E-9D8F-4494-83D0-D25FB55A9573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="656" activeTab="10"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15540" tabRatio="656" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
   <si>
     <t>组织的含义</t>
   </si>
@@ -1243,19 +1249,161 @@
   </si>
   <si>
     <t>结合实际情况，谈谈我国编制管理工作应该如何走向规范化和现代化</t>
+  </si>
+  <si>
+    <t>行政组织变革的外部原因</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织变革的内部原因</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济类型的转换，经济体制的转轨对行政组织变革的影响</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治制度的更迭对行政组织变革的影响</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会发展程度对行政组织变革的作用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织变革的内部原因与外部原因</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合行政生态学的观点，说明我国行政组织变革的原因</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织变革的征兆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织部门邻里，机构臃肿，职责不清，协调困难的具体表现</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织内部开拓进取动力不大的原因和表现</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明我国行政组织职能的膨胀与其他社会组织职能的冲突情况</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系实际，说明我国行政组织变革的具体征兆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标在行政组织变革中的作用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织变革的基本目标</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织变革的基本目标及其相互关系</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明我国行政组织变革中内外平衡的实现及其相互关系</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织职能变革的内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织结构的变革</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织权力关系的变革</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织的横向部门结构的变革</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向层级结构的变革</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织职能发展的总趋势</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织中横向部门结构的变革过程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明我国行政组织职能的发展过程及趋势</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合我国行政组织改革实际，谈谈我国行政组织权力关系变革的努力方向及措施</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织变革的动力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的科学，民主，效率观念对行政组织变革的作用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>试论我国经济体制的变革对我国行政组织变革的作用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织变革的阻力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织变革中行政组织自身的“经济人”特征</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈谈当前我国行政组织变革的主要困难和最大阻力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>克服阻力的基本方法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>克服利益本位思想的必要性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动群众，民主参与改革的具体措施</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>从理论与实际相结合的角度，说明克服我国行政组织改革最大困难与阻力的基本对策</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来行政组织变革的基本趋势</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我国实际，分析未来行政组织变革的趋势</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1277,7 +1425,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1300,345 +1448,36 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1646,255 +1485,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1916,62 +1513,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2258,2277 +1817,2452 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>369</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>405</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3704300E-9D8F-4494-83D0-D25FB55A9573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD94218E-8850-437C-8DF3-8127B86E667D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15540" tabRatio="656" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15540" tabRatio="656" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="第十章" sheetId="10" r:id="rId10"/>
     <sheet name="第十一章" sheetId="11" r:id="rId11"/>
     <sheet name="第十二章" sheetId="12" r:id="rId12"/>
+    <sheet name="第十三章" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="474">
   <si>
     <t>组织的含义</t>
   </si>
@@ -1396,6 +1397,130 @@
   </si>
   <si>
     <t>联系我国实际，分析未来行政组织变革的趋势</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代美国行政组织改革的背景</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共服务民营化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府职能市场化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代美国行政组织改革的主要内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对美国行政组织改革的简单评述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>简述放松规则的具体措施及得失</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>评析美国行政组织的放松规制改革及其对我国的启发和借鉴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒切夫人的“竞争性政府”改革</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>布莱尔的“合作型政府”改革</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国行政组织改革的主要内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国中央与地方政府关系的改革</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对英国行政组织改革的评述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较说明英美两国行政组织改革的特色</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本行政组织改革的背景</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本地方分权改革措施</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本行政组织改革的主要内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对日本行政组织改革的简单评述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本防止行政机构膨胀的机制及其启示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较美日两国放松规制改革的异同</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析说明当代西方国家行政组织的主要弊端及其所面临的挑战</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析说明当代西方国家行政组织改革市场化取向的内容及其对我国的借鉴意义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代中国行政组织改革的背景</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国行政组织改革的主要内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20世纪80年代以来的中国行政组织机构改革</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织与其他组织的职能关系的改革</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织内部职能关系的调整</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国行政组织职能转变的趋势</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国行政组织职能改革的主要经验</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较总结我国几次行政组织机构改革的得失成败</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析说明我国行政组织职能调整中存在的不足，并提出改进措施</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析说明我国行政组织的主要弊端及改革方向，以及以转变职能为中心的必要性</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2403,7 +2528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -2595,6 +2720,180 @@
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29408B7-E938-4004-949F-4C1A7A303E6E}">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD94218E-8850-437C-8DF3-8127B86E667D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15540" tabRatio="656" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="656" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -1253,282 +1247,220 @@
   </si>
   <si>
     <t>行政组织变革的外部原因</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织变革的内部原因</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>经济类型的转换，经济体制的转轨对行政组织变革的影响</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>政治制度的更迭对行政组织变革的影响</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>社会发展程度对行政组织变革的作用</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织变革的内部原因与外部原因</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>结合行政生态学的观点，说明我国行政组织变革的原因</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织变革的征兆</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政组织部门邻里，机构臃肿，职责不清，协调困难的具体表现</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织部门林立，机构臃肿，职责不清，协调困难的具体表现</t>
   </si>
   <si>
     <t>行政组织内部开拓进取动力不大的原因和表现</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>说明我国行政组织职能的膨胀与其他社会组织职能的冲突情况</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>联系实际，说明我国行政组织变革的具体征兆</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>目标在行政组织变革中的作用</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织变革的基本目标</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织变革的基本目标及其相互关系</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>说明我国行政组织变革中内外平衡的实现及其相互关系</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织职能变革的内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织结构的变革</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织权力关系的变革</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织的横向部门结构的变革</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>纵向层级结构的变革</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织职能发展的总趋势</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织中横向部门结构的变革过程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>说明我国行政组织职能的发展过程及趋势</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>结合我国行政组织改革实际，谈谈我国行政组织权力关系变革的努力方向及措施</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织变革的动力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>新的科学，民主，效率观念对行政组织变革的作用</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>试论我国经济体制的变革对我国行政组织变革的作用</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织变革的阻力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织变革中行政组织自身的“经济人”特征</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>谈谈当前我国行政组织变革的主要困难和最大阻力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>克服阻力的基本方法</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>克服利益本位思想的必要性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>发动群众，民主参与改革的具体措施</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>从理论与实际相结合的角度，说明克服我国行政组织改革最大困难与阻力的基本对策</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>未来行政组织变革的基本趋势</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>联系我国实际，分析未来行政组织变革的趋势</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>当代美国行政组织改革的背景</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>公共服务民营化</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>政府职能市场化</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>当代美国行政组织改革的主要内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对美国行政组织改革的简单评述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>简述放松规则的具体措施及得失</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>评析美国行政组织的放松规制改革及其对我国的启发和借鉴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>撒切夫人的“竞争性政府”改革</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>布莱尔的“合作型政府”改革</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>英国行政组织改革的主要内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>英国中央与地方政府关系的改革</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对英国行政组织改革的评述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>比较说明英美两国行政组织改革的特色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>日本行政组织改革的背景</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>日本地方分权改革措施</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>日本行政组织改革的主要内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对日本行政组织改革的简单评述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>日本防止行政机构膨胀的机制及其启示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>比较美日两国放松规制改革的异同</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>分析说明当代西方国家行政组织的主要弊端及其所面临的挑战</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>分析说明当代西方国家行政组织改革市场化取向的内容及其对我国的借鉴意义</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>当代中国行政组织改革的背景</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>中国行政组织改革的主要内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>20世纪80年代以来的中国行政组织机构改革</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织与其他组织的职能关系的改革</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行政组织内部职能关系的调整</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>中国行政组织职能转变的趋势</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>中国行政组织职能改革的主要经验</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>比较总结我国几次行政组织机构改革的得失成败</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>分析说明我国行政组织职能调整中存在的不足，并提出改进措施</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>分析说明我国行政组织的主要弊端及改革方向，以及以转变职能为中心的必要性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1537,14 +1469,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1555,8 +1493,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1573,36 +1511,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1610,13 +1857,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1641,21 +2130,62 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1942,2626 +2472,2638 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="5" t="s">
         <v>369</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
         <v>405</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
         <v>442</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29408B7-E938-4004-949F-4C1A7A303E6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
         <v>473</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="6" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="6" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="5" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:XFD1048576"/>
+      <selection activeCell="G17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA31A9A-C6F9-48F4-BF29-A50D3A452975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="656" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="656" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -1453,14 +1459,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,7 +1482,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1511,345 +1511,42 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1857,255 +1554,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2130,62 +1585,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2472,2638 +1889,2678 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>369</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>405</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="E22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
+      <c r="I38" s="9"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
+      <c r="I39" s="9"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="I40" s="9"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+      <c r="K41" s="9"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>442</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>473</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="6" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA31A9A-C6F9-48F4-BF29-A50D3A452975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="656" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="871" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
   <si>
     <t>组织的含义</t>
   </si>
@@ -1159,18 +1153,33 @@
     <t>分析我国行政组织编制管辖类别较多的原因</t>
   </si>
   <si>
+    <t>为了完整组织目标</t>
+  </si>
+  <si>
     <t>说明特殊编制存在的必要性</t>
   </si>
   <si>
+    <t>通过法律</t>
+  </si>
+  <si>
+    <t>招聘成员的认识管理方法</t>
+  </si>
+  <si>
     <t>行政组织编制管理的内容</t>
   </si>
   <si>
     <t>行政组织编制管理的性质</t>
   </si>
   <si>
+    <t>国家权力机关</t>
+  </si>
+  <si>
     <t>职能，机构，人员管理三者之间的关系</t>
   </si>
   <si>
+    <t>行政组织变价</t>
+  </si>
+  <si>
     <t>行政组织编制管理的意义</t>
   </si>
   <si>
@@ -1180,16 +1189,34 @@
     <t>人员编制管理的具体要求（内容）</t>
   </si>
   <si>
+    <t>组织活动中，对人员的数量，人员比例的控制</t>
+  </si>
+  <si>
     <t>说明当代国外行政组织编制管理的主要特点，及其值得我们借鉴的地方</t>
   </si>
   <si>
+    <t>一个行政组织，一个单位</t>
+  </si>
+  <si>
     <t>结合实际，谈谈行政组织编制管理的重大意义</t>
   </si>
   <si>
+    <t>国家组织的</t>
+  </si>
+  <si>
     <t>结合实际谈谈我国行政组织编制管理中存在的问题，并提出你的解决措施</t>
   </si>
   <si>
+    <t>职能划分</t>
+  </si>
+  <si>
+    <t>机构设置</t>
+  </si>
+  <si>
     <t>行政组织编制设计【原则】</t>
+  </si>
+  <si>
+    <t>人员招聘的工作的综合</t>
   </si>
   <si>
     <t>行政组织编辑【总体设计】【依据】</t>
@@ -1459,8 +1486,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1471,6 +1504,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1488,7 +1527,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1511,42 +1556,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1554,9 +1902,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1585,24 +2175,68 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1889,2678 +2523,2727 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="7" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
         <v>369</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="I6" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="7" spans="9:9">
+      <c r="I7" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="I9" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>388</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>390</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>405</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="10:10">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+      <c r="E22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
         <v>442</v>
       </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="9:10">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="s">
+        <v>453</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
         <v>473</v>
       </c>
     </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="6" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="6" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="8" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="8" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="7" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:XFD1048576"/>
+      <selection activeCell="G17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="7" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="543">
   <si>
     <t>组织的含义</t>
   </si>
@@ -1141,15 +1141,42 @@
     <t>行政组织编制的含义</t>
   </si>
   <si>
+    <t>有利于清正廉洁，提高效率</t>
+  </si>
+  <si>
+    <t>制定人员编制的比例和标准</t>
+  </si>
+  <si>
     <t>我国行政组织编制的种类</t>
   </si>
   <si>
+    <t>职能管理</t>
+  </si>
+  <si>
+    <t>有利于减少财政的开支</t>
+  </si>
+  <si>
+    <t>核定人员数量</t>
+  </si>
+  <si>
     <t>行政组织编制的狭义概念</t>
   </si>
   <si>
+    <t>机构管理</t>
+  </si>
+  <si>
+    <t>有利于管理的合法化</t>
+  </si>
+  <si>
+    <t>确定人员编制结构</t>
+  </si>
+  <si>
     <t>行政组织编制的广义概念</t>
   </si>
   <si>
+    <t>人员管理</t>
+  </si>
+  <si>
     <t>分析我国行政组织编制管辖类别较多的原因</t>
   </si>
   <si>
@@ -1162,27 +1189,57 @@
     <t>通过法律</t>
   </si>
   <si>
+    <t>行政编制管理的对象和范围仅限于各级政府行政机构</t>
+  </si>
+  <si>
+    <t>系统性</t>
+  </si>
+  <si>
     <t>招聘成员的认识管理方法</t>
   </si>
   <si>
+    <t>行政组织编辑的机构，直接对政府首脑负责</t>
+  </si>
+  <si>
     <t>行政组织编制管理的内容</t>
   </si>
   <si>
+    <t>政治性</t>
+  </si>
+  <si>
+    <t>法律技术兵种</t>
+  </si>
+  <si>
     <t>行政组织编制管理的性质</t>
   </si>
   <si>
+    <t>服务性</t>
+  </si>
+  <si>
     <t>国家权力机关</t>
   </si>
   <si>
+    <t>注重管理的刚性约束</t>
+  </si>
+  <si>
     <t>职能，机构，人员管理三者之间的关系</t>
   </si>
   <si>
     <t>行政组织变价</t>
   </si>
   <si>
+    <t>积极探索编制的管理理论和方法</t>
+  </si>
+  <si>
+    <t>积极探索理论方法</t>
+  </si>
+  <si>
     <t>行政组织编制管理的意义</t>
   </si>
   <si>
+    <t>编制管理的</t>
+  </si>
+  <si>
     <t>当代国外行政组织编制管理的特点</t>
   </si>
   <si>
@@ -1213,24 +1270,57 @@
     <t>机构设置</t>
   </si>
   <si>
+    <t>刑侦固执自编制管理的范围和对象仅限于政府行政机构</t>
+  </si>
+  <si>
     <t>行政组织编制设计【原则】</t>
   </si>
   <si>
     <t>人员招聘的工作的综合</t>
   </si>
   <si>
+    <t>行政组织编制机构直接向首脑负责</t>
+  </si>
+  <si>
     <t>行政组织编辑【总体设计】【依据】</t>
   </si>
   <si>
+    <t>科学的管理有助于勤政廉洁，提高效率</t>
+  </si>
+  <si>
+    <t>技术和法律并重</t>
+  </si>
+  <si>
     <t>行政组织编制【单元设计】【依据】</t>
   </si>
   <si>
+    <t>有利于减少政府的财政开支</t>
+  </si>
+  <si>
     <t>行政组织编制设计【程序】</t>
   </si>
   <si>
+    <t>有利于关凯的合法化</t>
+  </si>
+  <si>
+    <t>总体</t>
+  </si>
+  <si>
+    <t>各层级之间的行政组织编制</t>
+  </si>
+  <si>
+    <t>探索编制管理的理论和方法</t>
+  </si>
+  <si>
     <t>行政组织编制设计的原则</t>
   </si>
   <si>
+    <t>单元</t>
+  </si>
+  <si>
+    <t>各机构部门，部门内部的编制设计</t>
+  </si>
+  <si>
     <t>行政组织编制总体设计依据与单元设计依据的区别</t>
   </si>
   <si>
@@ -1240,34 +1330,118 @@
     <t>说明行政组织编制设计应遵循的原则</t>
   </si>
   <si>
+    <t>职能决定</t>
+  </si>
+  <si>
+    <t>只能的种类</t>
+  </si>
+  <si>
+    <t>部门设计的依据</t>
+  </si>
+  <si>
+    <t>职能决定和原则，职能的数量，质量，有无必要</t>
+  </si>
+  <si>
     <t>联系实际说明行政组织编制设计的依据，要求</t>
   </si>
   <si>
+    <t>只能设置</t>
+  </si>
+  <si>
+    <t>人口数量，质量，人口密度</t>
+  </si>
+  <si>
+    <t>机构内部设计的依据</t>
+  </si>
+  <si>
+    <t>职能设置的原则，给职能设置权力和责任</t>
+  </si>
+  <si>
     <t>比较行政决策程序与编制设计程序</t>
   </si>
   <si>
+    <t>协调</t>
+  </si>
+  <si>
+    <t>地域面积区域</t>
+  </si>
+  <si>
+    <t>发现问题，确定目标</t>
+  </si>
+  <si>
+    <t>协调平衡原则，各部门，职能之间保持平衡</t>
+  </si>
+  <si>
+    <t>动态调整</t>
+  </si>
+  <si>
+    <t>经济发展水平</t>
+  </si>
+  <si>
+    <t>提供方案择优体检</t>
+  </si>
+  <si>
+    <t>动态调整原则，随着政策，环境的变化做出调整</t>
+  </si>
+  <si>
     <t>行政组织编制审批程序</t>
   </si>
   <si>
+    <t>经济原则</t>
+  </si>
+  <si>
+    <t>行政区域</t>
+  </si>
+  <si>
+    <t>试行实施，反馈调整</t>
+  </si>
+  <si>
+    <t>经济原则，职能不是数量上的增减，而是经济效益的增减</t>
+  </si>
+  <si>
     <t>行政组织编制审批要求</t>
   </si>
   <si>
+    <t>依法管理原则</t>
+  </si>
+  <si>
+    <t>依法承包，核定试试</t>
+  </si>
+  <si>
     <t>行政组织编制的审批要求</t>
   </si>
   <si>
     <t>比较党，人大，政协，政府，检察院，法院编制的审批权限和程序</t>
   </si>
   <si>
+    <t>提供方案，分析优化</t>
+  </si>
+  <si>
+    <t>职能决定原则，职能性质，数量，质量，有无必要</t>
+  </si>
+  <si>
     <t>说明行政组织编制审批的法制化趋势与要求</t>
   </si>
   <si>
+    <t>职位设置原则，</t>
+  </si>
+  <si>
+    <t>依法呈报，核定实施</t>
+  </si>
+  <si>
     <t>编制管理工作规范化的要求</t>
   </si>
   <si>
     <t>编制管理手段</t>
   </si>
   <si>
+    <t>国务院组成部门设立，撤销，合并由国务院编制机关提出，经过国务院常委会议讨论通过后，由国务院总理在人大提出</t>
+  </si>
+  <si>
     <t>编制管理技术</t>
+  </si>
+  <si>
+    <t>由国务院总理提议人大决定</t>
   </si>
   <si>
     <t>编制管理工作规范化要求</t>
@@ -2910,10 +3084,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2921,221 +3095,411 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:15">
       <c r="A1" s="6" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="G1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>373</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>377</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>373</v>
+        <v>381</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="7" spans="9:9">
+        <v>386</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="6:12">
+      <c r="F7" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="I7" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>380</v>
+        <v>389</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>396</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>384</v>
+        <v>399</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>385</v>
+      <c r="A12" s="6" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>386</v>
+      <c r="A13" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>388</v>
+      <c r="A14" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>390</v>
+      <c r="A15" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12">
       <c r="I17" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>395</v>
+        <v>413</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>400</v>
+    <row r="21" spans="1:12">
+      <c r="A21" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>401</v>
+      <c r="A23" s="6" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="A24" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>443</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="28" spans="6:14">
+      <c r="F28" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>457</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>460</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>461</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
-        <v>410</v>
+        <v>464</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>468</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>413</v>
+        <v>470</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -3160,38 +3524,38 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>420</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>421</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>422</v>
+        <v>480</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -3200,50 +3564,50 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>431</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="9:9">
@@ -3251,20 +3615,20 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>434</v>
+        <v>492</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="E22" s="5"/>
       <c r="I22" s="5"/>
@@ -3272,61 +3636,61 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>436</v>
+        <v>494</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -3337,20 +3701,20 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="J36" s="5"/>
     </row>
@@ -3360,39 +3724,39 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="I38" s="5"/>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="3" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="I39" s="5"/>
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="I40" s="5"/>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="3" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="K41" s="5"/>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -3417,157 +3781,157 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>

--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89445A-6105-4443-83DE-F32CA8B8BB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="871" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="871" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="570">
   <si>
     <t>组织的含义</t>
   </si>
@@ -1655,19 +1661,121 @@
   </si>
   <si>
     <t>分析说明我国行政组织的主要弊端及改革方向，以及以转变职能为中心的必要性</t>
+  </si>
+  <si>
+    <t>批准编制，要根据法律规定，根据方正政策决定是否合理</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批编制工作，要由权威的编制机构来进行</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批工作要根据法律严格执行</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>严格执行纪律</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序化</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>制度化</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>主客观统一</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学阶级对立统一</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定和变动对立统一</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>有助于建立科学合理的行政组织结构</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导规范行政组织日常工作</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>改革和完善行政组织</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>各流派组织设置原则中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>既有主观偏见</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>又有对组织规律的认识</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以需要批判性的运用指导实践，实践中去检验真伪</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织目标</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一指挥</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>权责相称原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业和分工原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>精简节约原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级戒指和幅度适中原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1707,7 +1815,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1730,345 +1838,56 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2076,255 +1895,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2355,62 +1932,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2697,405 +2242,462 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
+      <c r="P2" s="12" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="I3" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="I4" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="I5" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P6" s="12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="P7" s="12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="J8" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="J9" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="J10" s="12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="J11" s="12" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>369</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" activeCellId="2" sqref="A38 A36 A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>370</v>
       </c>
@@ -3106,7 +2708,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>373</v>
       </c>
@@ -3120,7 +2722,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>377</v>
       </c>
@@ -3134,7 +2736,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>381</v>
       </c>
@@ -3142,7 +2744,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>383</v>
       </c>
@@ -3150,7 +2752,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>385</v>
       </c>
@@ -3161,7 +2763,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="6:12">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>388</v>
       </c>
@@ -3172,7 +2774,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>391</v>
       </c>
@@ -3183,7 +2785,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>394</v>
       </c>
@@ -3197,7 +2799,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>398</v>
       </c>
@@ -3211,7 +2813,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>402</v>
       </c>
@@ -3219,12 +2821,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>405</v>
       </c>
@@ -3232,7 +2834,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>407</v>
       </c>
@@ -3240,7 +2842,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>409</v>
       </c>
@@ -3248,7 +2850,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>411</v>
       </c>
@@ -3256,7 +2858,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="9:12">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="I17" s="1" t="s">
         <v>413</v>
       </c>
@@ -3264,7 +2866,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>415</v>
       </c>
@@ -3275,7 +2877,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>418</v>
       </c>
@@ -3286,7 +2888,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>421</v>
       </c>
@@ -3297,7 +2899,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>423</v>
       </c>
@@ -3314,7 +2916,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>428</v>
       </c>
@@ -3325,17 +2927,17 @@
         <v>430</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>433</v>
       </c>
@@ -3352,7 +2954,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>438</v>
       </c>
@@ -3369,7 +2971,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>443</v>
       </c>
@@ -3386,7 +2988,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="6:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F28" s="1" t="s">
         <v>448</v>
       </c>
@@ -3400,7 +3002,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>452</v>
       </c>
@@ -3417,8 +3019,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
         <v>457</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -3431,15 +3033,15 @@
         <v>458</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
         <v>460</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>461</v>
       </c>
@@ -3450,7 +3052,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>464</v>
       </c>
@@ -3461,25 +3063,25 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="8:8">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H34" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
         <v>468</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>470</v>
       </c>
@@ -3487,146 +3089,185 @@
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="I39" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>474</v>
       </c>
+      <c r="I40" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I41" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I42" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I44" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I45" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I46" s="11" t="s">
+        <v>552</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>480</v>
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>481</v>
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="10:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>482</v>
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>483</v>
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>484</v>
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="9:9">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>491</v>
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>492</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>493</v>
       </c>
@@ -3634,1980 +3275,1971 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>494</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>495</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>496</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>497</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>498</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>500</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>501</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>502</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="9:10">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>503</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>504</v>
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>505</v>
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="10:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>506</v>
       </c>
       <c r="I38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>507</v>
       </c>
       <c r="I39" s="5"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>508</v>
       </c>
       <c r="I40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>509</v>
       </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>511</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>542</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89445A-6105-4443-83DE-F32CA8B8BB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE1967D-93D3-4EBF-BA93-1639FBC0D700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="871" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="614">
   <si>
     <t>组织的含义</t>
   </si>
@@ -1768,6 +1768,182 @@
   </si>
   <si>
     <t>授权原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>以人为本</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>人与组织平衡的原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式和非正式组织原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭回路的原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>全变的原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织目标</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一追回</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级戒指幅度适中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>权责相称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>间接基恩月</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>严格区分上下级，稳定领导与被领导的关系</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制领导下属的人数，打到有效控制危险</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>人与组织平衡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通参与激励</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式和非正式</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>人是经济，社会的人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织活力的来源是成员全身心投入，对组织的认同感</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>要创造各种机制，让成员介入组织决策管理的过程</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>要实现信息交流，达到相互欣喜若</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭回路原则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>全变也厕</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据行政组织的只能，设立组织机构</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>围绕职能确立组织结构</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据职能发展的变化，适应调整组织</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构设置统一</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导指挥统一</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责与职权要统一</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持整体功能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持平衡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持开放</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理封闭回路</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构设置，人员编制要简化</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级幅度适中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业化分工</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化办事程序</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>设立机构</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>确立结构</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用职能发展的变化进行调整</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府机构的设置及其体制要有法律上的依据和保障</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构的设置与变化要有</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2398,10 +2574,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2470,16 +2646,22 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="13" t="s">
         <v>333</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>612</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>334</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>613</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>559</v>
@@ -2489,7 +2671,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
         <v>335</v>
       </c>
       <c r="J9" s="12" t="s">
@@ -2497,7 +2679,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="13" t="s">
         <v>336</v>
       </c>
       <c r="J10" s="12" t="s">
@@ -2505,176 +2687,316 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="13" t="s">
         <v>337</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>562</v>
       </c>
     </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P12" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="13" t="s">
         <v>338</v>
       </c>
       <c r="I13" s="12"/>
+      <c r="P13" s="7" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="13" t="s">
         <v>339</v>
       </c>
+      <c r="H14" s="7" t="s">
+        <v>570</v>
+      </c>
       <c r="I14" s="12"/>
+      <c r="L14" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="13" t="s">
         <v>340</v>
       </c>
+      <c r="H15" s="7" t="s">
+        <v>571</v>
+      </c>
       <c r="I15" s="12"/>
+      <c r="L15" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="A16" s="13" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="H16" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="H19" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H20" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+        <v>347</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="H24" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H25" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="H30" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H31" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
         <v>367</v>
       </c>
     </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
+      <c r="A49" s="7" t="s">
         <v>369</v>
       </c>
     </row>

--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE1967D-93D3-4EBF-BA93-1639FBC0D700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="871" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="871" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="553">
   <si>
     <t>组织的含义</t>
   </si>
@@ -1456,9 +1450,39 @@
     <t>比较编制管理手段各自的长短处</t>
   </si>
   <si>
+    <t>批准编制，要根据法律规定，根据方正政策决定是否合理</t>
+  </si>
+  <si>
+    <t>标准化</t>
+  </si>
+  <si>
     <t>结合实际情况，谈谈我国编制管理工作应该如何走向规范化和现代化</t>
   </si>
   <si>
+    <t>审批编制工作，要由权威的编制机构来进行</t>
+  </si>
+  <si>
+    <t>程序化</t>
+  </si>
+  <si>
+    <t>审批工作要根据法律严格执行</t>
+  </si>
+  <si>
+    <t>制度化</t>
+  </si>
+  <si>
+    <t>严格执行纪律</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>行政</t>
+  </si>
+  <si>
     <t>行政组织变革的外部原因</t>
   </si>
   <si>
@@ -1661,297 +1685,19 @@
   </si>
   <si>
     <t>分析说明我国行政组织的主要弊端及改革方向，以及以转变职能为中心的必要性</t>
-  </si>
-  <si>
-    <t>批准编制，要根据法律规定，根据方正政策决定是否合理</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批编制工作，要由权威的编制机构来进行</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批工作要根据法律严格执行</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>严格执行纪律</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>制度化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>法律</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>主客观统一</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学阶级对立统一</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定和变动对立统一</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>有助于建立科学合理的行政组织结构</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>指导规范行政组织日常工作</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>改革和完善行政组织</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>各流派组织设置原则中</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>既有主观偏见</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>又有对组织规律的认识</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以需要批判性的运用指导实践，实践中去检验真伪</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织目标</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一指挥</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>权责相称原则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业和分工原则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>精简节约原则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级戒指和幅度适中原则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权原则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>以人为本</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>人与组织平衡的原则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式和非正式组织原则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统原则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体原则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭回路的原则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>全变的原则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织目标</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一追回</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级戒指幅度适中</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>权责相称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>间接基恩月</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>严格区分上下级，稳定领导与被领导的关系</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制领导下属的人数，打到有效控制危险</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>人与组织平衡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>沟通参与激励</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式和非正式</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>人是经济，社会的人</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政组织活力的来源是成员全身心投入，对组织的认同感</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>要创造各种机制，让成员介入组织决策管理的过程</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>要实现信息交流，达到相互欣喜若</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放原则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>封闭回路原则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>全变也厕</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据行政组织的只能，设立组织机构</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>围绕职能确立组织结构</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据职能发展的变化，适应调整组织</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构设置统一</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>领导指挥统一</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>职责与职权要统一</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>保持整体功能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚持平衡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚持开放</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理封闭回路</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构设置，人员编制要简化</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级幅度适中</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业化分工</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>简化办事程序</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>设立机构</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>确立结构</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用职能发展的变化进行调整</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府机构的设置及其体制要有法律上的依据和保障</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构的设置与变化要有</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1978,26 +1724,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2009,61 +1743,350 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2071,13 +2094,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2102,36 +2367,62 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2418,609 +2709,406 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>553</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="P6" s="12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="P12" s="7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="P13" s="7" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="L14" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="L15" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H20" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="N21" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H25" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="P25" s="12" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P26" s="12" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="P27" s="12" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H31" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="7" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="4" t="s">
         <v>369</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" activeCellId="2" sqref="A38 A36 A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A38 A36 A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
         <v>370</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -3030,8 +3118,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3044,8 +3132,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
         <v>377</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3058,15 +3146,15 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>381</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>383</v>
       </c>
@@ -3074,7 +3162,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>385</v>
       </c>
@@ -3085,7 +3173,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="6:12">
       <c r="F7" s="1" t="s">
         <v>388</v>
       </c>
@@ -3096,8 +3184,8 @@
         <v>390</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
         <v>391</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -3107,8 +3195,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
         <v>394</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -3121,7 +3209,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>398</v>
       </c>
@@ -3135,44 +3223,44 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" s="2" t="s">
         <v>402</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
         <v>405</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
         <v>407</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
         <v>409</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>411</v>
       </c>
@@ -3180,7 +3268,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="9:12">
       <c r="I17" s="1" t="s">
         <v>413</v>
       </c>
@@ -3188,8 +3276,8 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
         <v>415</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -3199,8 +3287,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="2" t="s">
         <v>418</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -3210,8 +3298,8 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
         <v>421</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -3221,8 +3309,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
         <v>423</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3238,8 +3326,8 @@
         <v>427</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
         <v>428</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -3249,18 +3337,18 @@
         <v>430</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:14">
+      <c r="A25" s="2" t="s">
         <v>433</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -3276,8 +3364,8 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:14">
+      <c r="A26" s="2" t="s">
         <v>438</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -3293,7 +3381,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
         <v>443</v>
       </c>
@@ -3310,7 +3398,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:14">
       <c r="F28" s="1" t="s">
         <v>448</v>
       </c>
@@ -3324,8 +3412,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:14">
+      <c r="A29" s="2" t="s">
         <v>452</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -3341,8 +3429,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" s="2" t="s">
         <v>457</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -3355,15 +3443,15 @@
         <v>458</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
         <v>460</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
         <v>461</v>
       </c>
@@ -3374,7 +3462,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
         <v>464</v>
       </c>
@@ -3385,25 +3473,25 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="8:8">
       <c r="H34" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
         <v>468</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
         <v>470</v>
       </c>
@@ -3411,2157 +3499,2115 @@
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15">
       <c r="A39" s="3" t="s">
         <v>473</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="O40" s="11" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="41" spans="9:15">
       <c r="I41" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9">
       <c r="I42" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="I44" s="11" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="I45" s="11" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="I46" s="11" t="s">
-        <v>552</v>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:K44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="I39" s="5"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="7" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="7" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="7" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="7" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="7" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="7" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="7" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="8" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="6" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="6" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="4" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:XFD1048576"/>
+      <selection activeCell="G17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209FFF7E-00F5-43F7-A9F8-AD2B380FFDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="871" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="871" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -1690,14 +1696,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1743,350 +1743,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2094,255 +1784,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2367,62 +1815,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2709,405 +2119,417 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:K47"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="8" t="s">
         <v>369</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A38 A36 A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>370</v>
       </c>
@@ -3118,7 +2540,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>373</v>
       </c>
@@ -3132,7 +2554,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>377</v>
       </c>
@@ -3146,7 +2568,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>381</v>
       </c>
@@ -3154,7 +2576,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>383</v>
       </c>
@@ -3162,7 +2584,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>385</v>
       </c>
@@ -3173,7 +2595,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="6:12">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>388</v>
       </c>
@@ -3184,7 +2606,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>391</v>
       </c>
@@ -3195,7 +2617,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>394</v>
       </c>
@@ -3209,7 +2631,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>398</v>
       </c>
@@ -3223,7 +2645,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>402</v>
       </c>
@@ -3231,12 +2653,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>405</v>
       </c>
@@ -3244,7 +2666,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>407</v>
       </c>
@@ -3252,7 +2674,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>409</v>
       </c>
@@ -3260,7 +2682,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>411</v>
       </c>
@@ -3268,7 +2690,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="9:12">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="I17" s="1" t="s">
         <v>413</v>
       </c>
@@ -3276,7 +2698,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>415</v>
       </c>
@@ -3287,7 +2709,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>418</v>
       </c>
@@ -3298,7 +2720,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>421</v>
       </c>
@@ -3309,7 +2731,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>423</v>
       </c>
@@ -3326,7 +2748,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>428</v>
       </c>
@@ -3337,17 +2759,17 @@
         <v>430</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>433</v>
       </c>
@@ -3364,7 +2786,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>438</v>
       </c>
@@ -3381,7 +2803,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>443</v>
       </c>
@@ -3398,7 +2820,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="6:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F28" s="1" t="s">
         <v>448</v>
       </c>
@@ -3412,7 +2834,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>452</v>
       </c>
@@ -3429,7 +2851,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>457</v>
       </c>
@@ -3443,7 +2865,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>460</v>
       </c>
@@ -3451,7 +2873,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>461</v>
       </c>
@@ -3462,7 +2884,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>464</v>
       </c>
@@ -3473,17 +2895,17 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="8:8">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H34" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>468</v>
       </c>
@@ -3491,7 +2913,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>470</v>
       </c>
@@ -3499,12 +2921,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>473</v>
       </c>
@@ -3515,7 +2937,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>476</v>
       </c>
@@ -3526,7 +2948,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="41" spans="9:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I41" s="1" t="s">
         <v>479</v>
       </c>
@@ -3534,2080 +2956,2070 @@
         <v>480</v>
       </c>
     </row>
-    <row r="42" spans="9:9">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I42" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="44" spans="9:9">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I44" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="45" spans="9:9">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I45" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="46" spans="9:9">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I46" s="1" t="s">
         <v>484</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>521</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>552</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="6" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209FFF7E-00F5-43F7-A9F8-AD2B380FFDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3087CABC-71B3-44D0-AB3E-EFC5367ACDCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="871" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="871" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="557">
   <si>
     <t>组织的含义</t>
   </si>
@@ -1691,6 +1691,22 @@
   </si>
   <si>
     <t>分析说明我国行政组织的主要弊端及改革方向，以及以转变职能为中心的必要性</t>
+  </si>
+  <si>
+    <t>关系着行政组织阶级职能和社会职能的好坏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系着行政组织效率的高低</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>权利分配的关系是行政组织的核心</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政组织内部，各个阶级部门之间的管理分配关系</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2277,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4504,10 +4520,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4515,72 +4531,84 @@
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="H1" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="H3" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="H5" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="H6" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>248</v>
       </c>

--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3087CABC-71B3-44D0-AB3E-EFC5367ACDCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9F9EAC-49B2-43DA-86A6-6A0223E0D10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="871" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="553">
   <si>
     <t>组织的含义</t>
   </si>
@@ -1691,22 +1691,6 @@
   </si>
   <si>
     <t>分析说明我国行政组织的主要弊端及改革方向，以及以转变职能为中心的必要性</t>
-  </si>
-  <si>
-    <t>关系着行政组织阶级职能和社会职能的好坏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系着行政组织效率的高低</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>权利分配的关系是行政组织的核心</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政组织内部，各个阶级部门之间的管理分配关系</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1759,15 +1743,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1777,11 +1761,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1831,15 +1815,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2283,7 +2267,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2388,96 +2372,96 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I31" s="9"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>360</v>
       </c>
     </row>
@@ -2527,7 +2511,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2993,7 +2977,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3197,7 +3181,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3371,7 +3355,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3560,7 +3544,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -3935,7 +3919,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -4175,7 +4159,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4384,7 +4368,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4513,17 +4497,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4531,84 +4515,72 @@
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>248</v>
       </c>
@@ -4704,7 +4676,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4898,7 +4870,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5047,7 +5019,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9F9EAC-49B2-43DA-86A6-6A0223E0D10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1E9313-5D10-4626-B5C3-CF8585CAD7B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="871" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="557">
   <si>
     <t>组织的含义</t>
   </si>
@@ -1691,13 +1691,29 @@
   </si>
   <si>
     <t>分析说明我国行政组织的主要弊端及改革方向，以及以转变职能为中心的必要性</t>
+  </si>
+  <si>
+    <t>分析我国行政组织的基本要素</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态组织</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态组织</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>生态的组织环境</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1767,6 +1783,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1790,7 +1813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1819,6 +1842,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2125,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2136,133 +2162,172 @@
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G13" s="10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="G14" s="10" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="G15" s="10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4506,8 +4571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1E9313-5D10-4626-B5C3-CF8585CAD7B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B07FB75-8A0B-4FD9-A9E7-B601E1128640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="554">
   <si>
     <t>组织的含义</t>
   </si>
@@ -1694,18 +1694,6 @@
   </si>
   <si>
     <t>分析我国行政组织的基本要素</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态组织</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态组织</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>生态的组织环境</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2154,7 +2142,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2236,92 +2224,92 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G13" s="10" t="s">
-        <v>554</v>
-      </c>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>555</v>
-      </c>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>556</v>
-      </c>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>24</v>
       </c>

--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B07FB75-8A0B-4FD9-A9E7-B601E1128640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F2C52A-142D-45AE-A4B9-731363754A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="555">
   <si>
     <t>组织的含义</t>
   </si>
@@ -1694,6 +1694,10 @@
   </si>
   <si>
     <t>分析我国行政组织的基本要素</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究行政组织理论对优化行政工作人员素质的作用</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2139,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A33" sqref="A33:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2237,86 +2241,133 @@
         <v>10</v>
       </c>
       <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="H16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="H18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="H19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="H20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+      <c r="G22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="9" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/ZZZZLL/zzzzll.xlsx
+++ b/ZZZZLL/zzzzll.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ZZZZLL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F2C52A-142D-45AE-A4B9-731363754A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="871" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="598">
   <si>
     <t>组织的含义</t>
   </si>
@@ -61,6 +55,9 @@
     <t>行政组织中不同精神要素的地位</t>
   </si>
   <si>
+    <t>分析我国行政组织的基本要素</t>
+  </si>
+  <si>
     <t>行政组织的一般性质</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
     <t>研究行政组织理论对【我国改革实践】的指导作用</t>
   </si>
   <si>
+    <t>研究行政组织理论对优化行政工作人员素质的作用</t>
+  </si>
+  <si>
     <t>奴隶制时期古埃及，古希腊，古罗马行政组织的特点</t>
   </si>
   <si>
@@ -193,6 +193,9 @@
     <t>孙中山的五权并立思想与南京政府无缘制的区别</t>
   </si>
   <si>
+    <t>·</t>
+  </si>
+  <si>
     <t>中国人民共和国行政组织的性质及其职能</t>
   </si>
   <si>
@@ -223,84 +226,210 @@
     <t>马基雅维利的思想组织原则</t>
   </si>
   <si>
-    <t>官房学派及其理论观点</t>
+    <t>社会分工是行政组织存在的基础</t>
+  </si>
+  <si>
+    <t>明确行政组织的职能</t>
+  </si>
+  <si>
+    <t>官方学派及其理论观点</t>
+  </si>
+  <si>
+    <t>无学识者不能治国</t>
+  </si>
+  <si>
+    <t>倡导政府机关职能，工作方式的改进</t>
   </si>
   <si>
     <t>汉密尔顿的行政组织思想</t>
   </si>
   <si>
+    <t>柏拉图</t>
+  </si>
+  <si>
+    <t>治国教育为第一要务</t>
+  </si>
+  <si>
+    <t>早期的行政组织思想都包含国家管理思想中</t>
+  </si>
+  <si>
+    <t>强调行政组织应该成为公众信赖的机关</t>
+  </si>
+  <si>
     <t>密尔的行政组织思想</t>
   </si>
   <si>
+    <t>依法行政思想</t>
+  </si>
+  <si>
+    <t>与政治混为一谈</t>
+  </si>
+  <si>
     <t>对外国早起行政组织思想的评价</t>
   </si>
   <si>
+    <t>有单纯的行政管理</t>
+  </si>
+  <si>
+    <t>议事权，执法权，行政权，相分离</t>
+  </si>
+  <si>
+    <t>没有行政组织</t>
+  </si>
+  <si>
     <t>行政组织理论研究的三个时期</t>
   </si>
   <si>
+    <t>设置行政机构的依据</t>
+  </si>
+  <si>
     <t>行政组织理论产生的经济，政治，文化环境</t>
   </si>
   <si>
+    <t>初步阐述了行政组织职能的思想</t>
+  </si>
+  <si>
     <t>行政组织理论的研究趋向</t>
   </si>
   <si>
+    <t>亚里士多德</t>
+  </si>
+  <si>
+    <t>提出行政人员要德才兼备</t>
+  </si>
+  <si>
+    <t>工业革命的完成要求组织管理科学化</t>
+  </si>
+  <si>
+    <t>提出监督机制</t>
+  </si>
+  <si>
+    <t>民主共和政治的建立和社会文化的发展要求企业组织管理科学化</t>
+  </si>
+  <si>
     <t>威尔逊行政组织思想要点</t>
   </si>
   <si>
+    <t>宗尚治法</t>
+  </si>
+  <si>
+    <t>政治学理论的发展为行政组织建立基础</t>
+  </si>
+  <si>
     <t>泰罗的科学管理组织理论</t>
   </si>
   <si>
     <t>法约尔的组织管理五要素</t>
   </si>
   <si>
+    <t>群众支持原则</t>
+  </si>
+  <si>
     <t>韦伯的三种权威类型</t>
   </si>
   <si>
+    <t>组织内聚力原则</t>
+  </si>
+  <si>
     <t>古拉克的七要素</t>
   </si>
   <si>
+    <t>马基雅维利</t>
+  </si>
+  <si>
+    <t>组织领导者必须超出常人能力原则</t>
+  </si>
+  <si>
     <t>厄威尔的八条原则</t>
   </si>
   <si>
+    <t>持续存在下去的原则</t>
+  </si>
+  <si>
     <t>威尔逊理论贡献</t>
   </si>
   <si>
     <t>官僚制组织的特征</t>
   </si>
   <si>
+    <t>主张建立统一的完善的制度</t>
+  </si>
+  <si>
     <t>泰罗，法约尔，韦伯组织思想的比较</t>
   </si>
   <si>
+    <t>官方</t>
+  </si>
+  <si>
+    <t>选用优秀的人才作为国建管制</t>
+  </si>
+  <si>
+    <t>将管辖的事务分为若干部门来处理</t>
+  </si>
+  <si>
     <t>行为科学</t>
   </si>
   <si>
+    <t>加强政府的权力，强调人民对国家行政管理的服从</t>
+  </si>
+  <si>
     <t>社会人理论</t>
   </si>
   <si>
     <t>职工的满足度</t>
   </si>
   <si>
+    <t>扩大行政组织部门的权力</t>
+  </si>
+  <si>
     <t>梅奥人际关系组织理论的基本内容与贡献</t>
   </si>
   <si>
+    <t>建立强而有力的行政组织</t>
+  </si>
+  <si>
     <t>梅奥人际关系组织理论与不讲原则的庸俗人际关系思想的区别</t>
   </si>
   <si>
+    <t>汉密尔顿</t>
+  </si>
+  <si>
+    <t>充分的法律支持</t>
+  </si>
+  <si>
+    <t>足够的权力</t>
+  </si>
+  <si>
     <t>组织的定义</t>
   </si>
   <si>
     <t>组织三要素</t>
   </si>
   <si>
+    <t>衡量一个组织工作的好坏看是否促进社会利益的增长</t>
+  </si>
+  <si>
     <t>权威来自接受</t>
   </si>
   <si>
+    <t>密尔</t>
+  </si>
+  <si>
+    <t>界定了政府的职能，不能妨碍个人自由发展为前提</t>
+  </si>
+  <si>
     <t>组织平衡论</t>
   </si>
   <si>
+    <t>提出行政组织分工要合理</t>
+  </si>
+  <si>
     <t>非正式组织</t>
   </si>
   <si>
+    <t>政府的所有工作都有专业技术性的业务，需要找专业人员负责</t>
+  </si>
+  <si>
     <t>巴纳德的组织平衡思想的意思</t>
   </si>
   <si>
@@ -1691,21 +1820,19 @@
   </si>
   <si>
     <t>分析说明我国行政组织的主要弊端及改革方向，以及以转变职能为中心的必要性</t>
-  </si>
-  <si>
-    <t>分析我国行政组织的基本要素</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究行政组织理论对优化行政工作人员素质的作用</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/sp